--- a/learn_python3/教师/第000课/中国大学专业分析.xlsx
+++ b/learn_python3/教师/第000课/中国大学专业分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sliang\development\github\laolang_tutorials\learn_python3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sliang\development\github\laolang_tutorials\learn_python3\教师\第000课\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C889BC14-1AA0-4696-A26A-666FBEADD084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D521686-0694-4180-B598-AD4B6976838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="911" activeTab="1" xr2:uid="{18965D51-7140-42B5-B1F8-393C419405E7}"/>
   </bookViews>
@@ -25,7 +25,6 @@
     <sheet name="软件工程-排名" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5130,7 +5129,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
